--- a/TABLE 9A.1.xlsx
+++ b/TABLE 9A.1.xlsx
@@ -3,19 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="10773"/>
+    <workbookView windowWidth="25600" windowHeight="10773" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CIIReport" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>sn</t>
   </si>
@@ -143,10 +145,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>3</t>
     </r>
@@ -154,10 +155,9 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -172,10 +172,9 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>73</t>
     </r>
@@ -183,10 +182,9 @@
       <rPr>
         <vertAlign val="superscript"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
@@ -229,6 +227,24 @@
   </si>
   <si>
     <t>Crime_Rate</t>
+  </si>
+  <si>
+    <t>ut</t>
+  </si>
+  <si>
+    <t>y2017</t>
+  </si>
+  <si>
+    <t>y2018</t>
+  </si>
+  <si>
+    <t>y2019</t>
+  </si>
+  <si>
+    <t>y2020</t>
+  </si>
+  <si>
+    <t>y2021</t>
   </si>
 </sst>
 </file>
@@ -237,47 +253,23 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Akshar Unicode"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -285,11 +277,34 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,15 +318,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -333,38 +364,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,7 +395,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -395,30 +411,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,13 +425,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -450,19 +464,19 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFEBFCEB"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFEBFBEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBFBEB"/>
+        <bgColor rgb="FFEBFCEB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBFBEB"/>
-        <bgColor indexed="64"/>
+        <bgColor rgb="FFCCFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -473,19 +487,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,13 +613,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,139 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,7 +722,7 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -716,10 +730,10 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -727,7 +741,7 @@
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -738,18 +752,18 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -773,7 +787,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -789,21 +803,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,8 +824,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -834,11 +835,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -854,257 +868,264 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1159,6 +1180,74 @@
     <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00EBFBEB"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1168,7 +1257,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1178,39 +1267,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1289,160 +1378,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1456,1106 +1516,1106 @@
   <sheetPr/>
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18333333333333" defaultRowHeight="15.3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.725" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.725" style="1" customWidth="1"/>
-    <col min="3" max="5" width="12.1833333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1083333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.18333333333333" style="1"/>
+    <col min="1" max="1" width="3.71666666666667" style="10" customWidth="1"/>
+    <col min="2" max="2" width="17.7166666666667" style="10" customWidth="1"/>
+    <col min="3" max="5" width="12.1833333333333" style="10" customWidth="1"/>
+    <col min="6" max="6" width="15" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.1083333333333" style="10" customWidth="1"/>
+    <col min="8" max="8" width="13" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9.18333333333333" style="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.4" spans="1:8">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A2" s="9">
+    <row r="2" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="10">
         <v>1886</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="10">
         <v>1899</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="29">
         <v>1875</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <v>523.2</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="30">
         <v>526</v>
       </c>
-      <c r="H2" s="22">
+      <c r="H2" s="31">
         <v>528.5</v>
       </c>
     </row>
-    <row r="3" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A3" s="10">
+    <row r="3" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A3" s="19">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="20">
         <v>8</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="20">
         <v>30</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="32">
         <v>47</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <v>15.1</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="33">
         <v>15.2</v>
       </c>
-      <c r="H3" s="25">
+      <c r="H3" s="34">
         <v>15.4</v>
       </c>
     </row>
-    <row r="4" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A4" s="9">
+    <row r="4" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="10">
         <v>2231</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="10">
         <v>3530</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="35">
         <v>4846</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>344.2</v>
       </c>
-      <c r="G4" s="21">
+      <c r="G4" s="30">
         <v>347.9</v>
       </c>
-      <c r="H4" s="27">
+      <c r="H4" s="36">
         <v>351.6</v>
       </c>
     </row>
-    <row r="5" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A5" s="10">
+    <row r="5" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="20">
         <v>1050</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="20">
         <v>1512</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="32">
         <v>1413</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <v>1201.1</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="33">
         <v>1219</v>
       </c>
-      <c r="H5" s="25">
+      <c r="H5" s="34">
         <v>1237</v>
       </c>
     </row>
-    <row r="6" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A6" s="9">
+    <row r="6" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="10">
         <v>175</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="10">
         <v>297</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="35">
         <v>352</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <v>288.5</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="30">
         <v>292.4</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="36">
         <v>296.1</v>
       </c>
     </row>
-    <row r="7" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A7" s="10">
+    <row r="7" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="20">
         <v>15</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="20">
         <v>40</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="32">
         <v>36</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
         <v>15.4</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="33">
         <v>15.5</v>
       </c>
-      <c r="H7" s="25">
+      <c r="H7" s="34">
         <v>15.6</v>
       </c>
     </row>
-    <row r="8" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A8" s="9">
+    <row r="8" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>784</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="10">
         <v>1283</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="35">
         <v>1536</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <v>682.5</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="30">
         <v>691.7</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="36">
         <v>700.8</v>
       </c>
     </row>
-    <row r="9" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A9" s="10">
+    <row r="9" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="20">
         <v>564</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="20">
         <v>656</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="32">
         <v>622</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="10">
         <v>288.1</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="33">
         <v>292.1</v>
       </c>
-      <c r="H9" s="25">
+      <c r="H9" s="34">
         <v>296</v>
       </c>
     </row>
-    <row r="10" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A10" s="9">
+    <row r="10" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A10" s="18">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>76</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>98</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="35">
         <v>70</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <v>73.2</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="30">
         <v>73.6</v>
       </c>
-      <c r="H10" s="27">
+      <c r="H10" s="36">
         <v>74.1</v>
       </c>
     </row>
-    <row r="11" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A11" s="10">
+    <row r="11" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A11" s="19">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="20">
         <v>1095</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="20">
         <v>1204</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="32">
         <v>953</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <v>375.8</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="33">
         <v>381.2</v>
       </c>
-      <c r="H11" s="25">
+      <c r="H11" s="34">
         <v>386.4</v>
       </c>
     </row>
-    <row r="12" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A12" s="9">
+    <row r="12" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A12" s="18">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="10">
         <v>12020</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="10">
         <v>10741</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="35">
         <v>8136</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <v>659.7</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="30">
         <v>665</v>
       </c>
-      <c r="H12" s="27">
+      <c r="H12" s="36">
         <v>669.9</v>
       </c>
     </row>
-    <row r="13" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A13" s="10">
+    <row r="13" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A13" s="19">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="20">
         <v>307</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="20">
         <v>426</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="32">
         <v>626</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="10">
         <v>351.9</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="33">
         <v>353.7</v>
       </c>
-      <c r="H13" s="25">
+      <c r="H13" s="34">
         <v>355.4</v>
       </c>
     </row>
-    <row r="14" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A14" s="9">
+    <row r="14" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A14" s="18">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="10">
         <v>602</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="10">
         <v>699</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="35">
         <v>589</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <v>826.1</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="30">
         <v>837.6</v>
       </c>
-      <c r="H14" s="27">
+      <c r="H14" s="36">
         <v>848.6</v>
       </c>
     </row>
-    <row r="15" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A15" s="10">
+    <row r="15" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A15" s="19">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="20">
         <v>4967</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="20">
         <v>5496</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="32">
         <v>5562</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <v>1225.3</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="33">
         <v>1236.8</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="34">
         <v>1247.6</v>
       </c>
     </row>
-    <row r="16" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A16" s="9">
+    <row r="16" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A16" s="18">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="10">
         <v>4</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="10">
         <v>79</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="35">
         <v>67</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="10">
         <v>31.1</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="30">
         <v>31.4</v>
       </c>
-      <c r="H16" s="27">
+      <c r="H16" s="36">
         <v>31.7</v>
       </c>
     </row>
-    <row r="17" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A17" s="10">
+    <row r="17" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A17" s="19">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="20">
         <v>89</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="20">
         <v>142</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="32">
         <v>107</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="10">
         <v>32.3</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="33">
         <v>32.6</v>
       </c>
-      <c r="H17" s="25">
+      <c r="H17" s="34">
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A18" s="9">
+    <row r="18" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A18" s="18">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="10">
         <v>8</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="10">
         <v>13</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="35">
         <v>30</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="10">
         <v>12</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="30">
         <v>12.1</v>
       </c>
-      <c r="H18" s="27">
+      <c r="H18" s="36">
         <v>12.2</v>
       </c>
     </row>
-    <row r="19" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A19" s="10">
+    <row r="19" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A19" s="19">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="20">
         <v>2</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="20">
         <v>8</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="32">
         <v>8</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="10">
         <v>21.6</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="33">
         <v>21.8</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="34">
         <v>22</v>
       </c>
     </row>
-    <row r="20" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A20" s="9">
+    <row r="20" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A20" s="18">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="10">
         <v>1485</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="10">
         <v>1931</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="35">
         <v>2037</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="10">
         <v>437.3</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="30">
         <v>454.7</v>
       </c>
-      <c r="H20" s="27">
+      <c r="H20" s="36">
         <v>457.9</v>
       </c>
     </row>
-    <row r="21" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A21" s="10">
+    <row r="21" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A21" s="19">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="20">
         <v>243</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="20">
         <v>378</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="32">
         <v>551</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="10">
         <v>299.4</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="33">
         <v>301.8</v>
       </c>
-      <c r="H21" s="25">
+      <c r="H21" s="34">
         <v>304</v>
       </c>
     </row>
-    <row r="22" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A22" s="9">
+    <row r="22" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A22" s="18">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="10">
         <v>1762</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="10">
         <v>1354</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="35">
         <v>1504</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="10">
         <v>776</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="30">
         <v>786.1</v>
       </c>
-      <c r="H22" s="27">
+      <c r="H22" s="36">
         <v>795.7</v>
       </c>
     </row>
-    <row r="23" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A23" s="10">
+    <row r="23" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A23" s="19">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="20">
         <v>2</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="20">
         <v>0</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="32">
         <v>0</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="10">
         <v>6.7</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="33">
         <v>6.7</v>
       </c>
-      <c r="H23" s="25">
+      <c r="H23" s="34">
         <v>6.8</v>
       </c>
     </row>
-    <row r="24" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A24" s="9">
+    <row r="24" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A24" s="18">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="10">
         <v>385</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="10">
         <v>782</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="35">
         <v>1076</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="10">
         <v>758.1</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="30">
         <v>761.7</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="36">
         <v>764.8</v>
       </c>
     </row>
-    <row r="25" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A25" s="10">
+    <row r="25" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A25" s="19">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="20">
         <v>2691</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="20">
         <v>5024</v>
       </c>
-      <c r="E25" s="23">
+      <c r="E25" s="32">
         <v>10303</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="10">
         <v>372.8</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="33">
         <v>375.4</v>
       </c>
-      <c r="H25" s="25">
+      <c r="H25" s="34">
         <v>377.7</v>
       </c>
     </row>
-    <row r="26" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A26" s="9">
+    <row r="26" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A26" s="18">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="10">
         <v>20</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="10">
         <v>34</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="35">
         <v>24</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="10">
         <v>40</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="30">
         <v>40.4</v>
       </c>
-      <c r="H26" s="27">
+      <c r="H26" s="36">
         <v>40.8</v>
       </c>
     </row>
-    <row r="27" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A27" s="10">
+    <row r="27" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A27" s="19">
         <v>26</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="20">
         <v>11416</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="20">
         <v>11097</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="32">
         <v>8829</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="10">
         <v>2259.7</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="33">
         <v>2289.3</v>
       </c>
-      <c r="H27" s="25">
+      <c r="H27" s="34">
         <v>2317</v>
       </c>
     </row>
-    <row r="28" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A28" s="9">
+    <row r="28" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A28" s="18">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="10">
         <v>100</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="10">
         <v>243</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="35">
         <v>718</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="10">
         <v>111.8</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="30">
         <v>113.1</v>
       </c>
-      <c r="H28" s="27">
+      <c r="H28" s="36">
         <v>114.4</v>
       </c>
     </row>
-    <row r="29" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A29" s="10">
+    <row r="29" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A29" s="19">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="20">
         <v>524</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="20">
         <v>712</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="32">
         <v>513</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="10">
         <v>971.1</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="33">
         <v>977.2</v>
       </c>
-      <c r="H29" s="25">
+      <c r="H29" s="34">
         <v>982.9</v>
       </c>
     </row>
-    <row r="30" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A30" s="12"/>
-      <c r="B30" s="4" t="s">
+    <row r="30" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A30" s="21"/>
+      <c r="B30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="13">
+      <c r="C30" s="22">
         <v>44511</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="22">
         <v>49708</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="37">
         <v>52430</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="10">
         <v>13135.2</v>
       </c>
-      <c r="G30" s="29">
+      <c r="G30" s="38">
         <v>13151.8</v>
       </c>
-      <c r="H30" s="30">
+      <c r="H30" s="39">
         <v>13283.6</v>
       </c>
     </row>
-    <row r="31" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A31" s="14" t="s">
+    <row r="31" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A31" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14">
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="14">
         <v>0</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="14">
         <v>0</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="10">
         <v>0</v>
       </c>
-      <c r="G31" s="31">
+      <c r="G31" s="14">
         <v>0</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H31" s="10">
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A32" s="9">
+    <row r="32" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A32" s="18">
         <v>29</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="10">
         <v>2</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="10">
         <v>5</v>
       </c>
-      <c r="E32" s="26">
+      <c r="E32" s="35">
         <v>8</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10">
         <v>4</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="30">
         <v>4</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="36">
         <v>4</v>
       </c>
     </row>
-    <row r="33" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A33" s="10">
+    <row r="33" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A33" s="19">
         <v>30</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="20">
         <v>23</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="20">
         <v>17</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="32">
         <v>15</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="10">
         <v>11.8</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="33">
         <v>12</v>
       </c>
-      <c r="H33" s="25">
+      <c r="H33" s="34">
         <v>12.1</v>
       </c>
     </row>
     <row r="34" ht="30.65" spans="1:8">
-      <c r="A34" s="9">
+      <c r="A34" s="18">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D34" s="1">
+      <c r="D34" s="10">
         <v>3</v>
       </c>
-      <c r="E34" s="26">
+      <c r="E34" s="35">
         <v>5</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="10">
         <v>9.8</v>
       </c>
-      <c r="G34" s="21">
+      <c r="G34" s="30">
         <v>10.4</v>
       </c>
-      <c r="H34" s="27">
+      <c r="H34" s="36">
         <v>11.1</v>
       </c>
     </row>
-    <row r="35" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A35" s="10">
+    <row r="35" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A35" s="19">
         <v>32</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C35" s="16">
+      <c r="C35" s="25">
         <v>115</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="20">
         <v>168</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="32">
         <v>356</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="10">
         <v>199.4</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="33">
         <v>203.2</v>
       </c>
-      <c r="H35" s="25">
+      <c r="H35" s="34">
         <v>207</v>
       </c>
     </row>
-    <row r="36" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A36" s="9">
+    <row r="36" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A36" s="18">
         <v>33</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="10">
         <v>120</v>
       </c>
-      <c r="E36" s="26">
+      <c r="E36" s="35">
         <v>154</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="10">
         <v>135.3</v>
       </c>
-      <c r="G36" s="21">
+      <c r="G36" s="30">
         <v>133.4</v>
       </c>
-      <c r="H36" s="27">
+      <c r="H36" s="36">
         <v>134.4</v>
       </c>
     </row>
-    <row r="37" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A37" s="10">
+    <row r="37" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A37" s="19">
         <v>34</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="25">
         <v>0</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="20">
         <v>1</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="32">
         <v>5</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="10">
         <v>0</v>
       </c>
-      <c r="G37" s="24">
+      <c r="G37" s="33">
         <v>3</v>
       </c>
-      <c r="H37" s="25">
+      <c r="H37" s="34">
         <v>3</v>
       </c>
     </row>
-    <row r="38" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A38" s="9">
+    <row r="38" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A38" s="18">
         <v>35</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="10">
         <v>4</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="10">
         <v>3</v>
       </c>
-      <c r="E38" s="26">
+      <c r="E38" s="35">
         <v>1</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="10">
         <v>0.7</v>
       </c>
-      <c r="G38" s="21">
+      <c r="G38" s="30">
         <v>0.7</v>
       </c>
-      <c r="H38" s="27">
+      <c r="H38" s="36">
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A39" s="10">
+    <row r="39" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A39" s="19">
         <v>36</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="20">
         <v>4</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="20">
         <v>10</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="32">
         <v>0</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="10">
         <v>15.2</v>
       </c>
-      <c r="G39" s="24">
+      <c r="G39" s="33">
         <v>15.5</v>
       </c>
-      <c r="H39" s="25">
+      <c r="H39" s="34">
         <v>15.8</v>
       </c>
     </row>
-    <row r="40" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A40" s="12"/>
-      <c r="B40" s="4" t="s">
+    <row r="40" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A40" s="21"/>
+      <c r="B40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="13">
+      <c r="C40" s="22">
         <v>224</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D40" s="22">
         <v>327</v>
       </c>
-      <c r="E40" s="28">
+      <c r="E40" s="37">
         <v>544</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="10">
         <v>240.8</v>
       </c>
-      <c r="G40" s="29">
+      <c r="G40" s="38">
         <v>382.1</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="39">
         <v>388.1</v>
       </c>
     </row>
-    <row r="41" ht="14.15" customHeight="1" spans="1:8">
-      <c r="A41" s="17"/>
-      <c r="B41" s="6" t="s">
+    <row r="41" ht="13.5" customHeight="1" spans="1:8">
+      <c r="A41" s="26"/>
+      <c r="B41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="18">
+      <c r="C41" s="27">
         <v>44735</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="27">
         <v>50035</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="40">
         <v>52974</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="10">
         <v>13376.1</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="41">
         <v>13533.9</v>
       </c>
-      <c r="H41" s="34">
+      <c r="H41" s="42">
         <v>13671.8</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" ht="13.3" spans="1:1">
-      <c r="A42" s="7" t="s">
+    <row r="42" s="16" customFormat="1" ht="13.3" spans="1:1">
+      <c r="A42" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" ht="13.3" spans="1:1">
-      <c r="A43" s="19" t="s">
+    <row r="43" s="16" customFormat="1" ht="13.3" spans="1:1">
+      <c r="A43" s="28" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" ht="13.3" spans="1:1">
-      <c r="A44" s="7" t="s">
+    <row r="44" s="16" customFormat="1" ht="13.3" spans="1:1">
+      <c r="A44" s="16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" ht="13.3" spans="1:1">
-      <c r="A45" s="35" t="s">
+    <row r="45" s="16" customFormat="1" ht="13.3" spans="1:1">
+      <c r="A45" s="16" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" ht="13.3" spans="1:1">
-      <c r="A46" s="35" t="s">
+    <row r="46" s="16" customFormat="1" ht="13.3" spans="1:1">
+      <c r="A46" s="16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" ht="13.3" spans="1:1">
-      <c r="A47" s="35" t="s">
+    <row r="47" s="16" customFormat="1" ht="13.3" spans="1:1">
+      <c r="A47" s="16" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2563,8 +2623,8 @@
   <hyperlinks>
     <hyperlink ref="B37" r:id="rId1" display="Ladakh "/>
   </hyperlinks>
-  <pageMargins left="0.416666666666667" right="0.416666666666667" top="0.416666666666667" bottom="0.416666666666667" header="0.416666666666667" footer="0.416666666666667"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200"/>
+  <pageMargins left="0.416666666666667" right="0.416666666666667" top="0.416666666666667" bottom="0.416666666666667" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2574,8 +2634,8 @@
   <sheetPr/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.3" outlineLevelCol="1"/>
@@ -2584,7 +2644,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
@@ -2592,318 +2652,318 @@
       </c>
     </row>
     <row r="2" ht="15.35" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="10">
         <v>3.5</v>
       </c>
     </row>
     <row r="3" ht="15.35" spans="1:2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="10">
         <v>3.1</v>
       </c>
     </row>
     <row r="4" ht="15.35" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="10">
         <v>13.8</v>
       </c>
     </row>
     <row r="5" ht="15.35" spans="1:2">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="10">
         <v>1.1</v>
       </c>
     </row>
     <row r="6" ht="15.35" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="10">
         <v>1.2</v>
       </c>
     </row>
     <row r="7" ht="15.35" spans="1:2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>2.3</v>
       </c>
     </row>
     <row r="8" ht="15.35" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>2.2</v>
       </c>
     </row>
     <row r="9" ht="15.35" spans="1:2">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="10">
         <v>2.1</v>
       </c>
     </row>
     <row r="10" ht="15.35" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>0.9</v>
       </c>
     </row>
     <row r="11" ht="15.35" spans="1:2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>2.5</v>
       </c>
     </row>
     <row r="12" ht="15.35" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="10">
         <v>12.1</v>
       </c>
     </row>
     <row r="13" ht="15.35" spans="1:2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="10">
         <v>1.8</v>
       </c>
     </row>
     <row r="14" ht="15.35" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="10">
         <v>0.7</v>
       </c>
     </row>
     <row r="15" ht="15.35" spans="1:2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="10">
         <v>4.5</v>
       </c>
     </row>
     <row r="16" ht="15.35" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="10">
         <v>2.1</v>
       </c>
     </row>
     <row r="17" ht="15.35" spans="1:2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="10">
         <v>3.2</v>
       </c>
     </row>
     <row r="18" ht="15.35" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="10">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" ht="15.35" spans="1:2">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="10">
         <v>0.4</v>
       </c>
     </row>
     <row r="20" ht="15.35" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="10">
         <v>4.4</v>
       </c>
     </row>
     <row r="21" ht="15.35" spans="1:2">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="10">
         <v>1.8</v>
       </c>
     </row>
     <row r="22" ht="15.35" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="10">
         <v>1.9</v>
       </c>
     </row>
     <row r="23" ht="15.35" spans="1:2">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="24" ht="15.35" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="10">
         <v>1.4</v>
       </c>
     </row>
     <row r="25" ht="15.35" spans="1:2">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="10">
         <v>27.3</v>
       </c>
     </row>
     <row r="26" ht="15.35" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="10">
         <v>0.6</v>
       </c>
     </row>
     <row r="27" ht="15.35" spans="1:2">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="10">
         <v>3.8</v>
       </c>
     </row>
     <row r="28" ht="15.35" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="10">
         <v>6.3</v>
       </c>
     </row>
     <row r="29" ht="15.35" spans="1:2">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="30" ht="15.35" spans="1:2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="10">
         <v>3.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="5"/>
-      <c r="B31" s="1"/>
+      <c r="A31" s="14"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" ht="15.35" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="33" ht="15.35" spans="1:2">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="10">
         <v>1.2</v>
       </c>
     </row>
     <row r="34" ht="30.65" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="10">
         <v>0.5</v>
       </c>
     </row>
     <row r="35" ht="15.35" spans="1:2">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="10">
         <v>1.7</v>
       </c>
     </row>
     <row r="36" ht="15.35" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="10">
         <v>1.1</v>
       </c>
     </row>
     <row r="37" ht="15.35" spans="1:2">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="10">
         <v>1.7</v>
       </c>
     </row>
     <row r="38" ht="15.35" spans="1:2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="10">
         <v>1.5</v>
       </c>
     </row>
     <row r="39" ht="15.35" spans="1:2">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="40" ht="15.35" spans="1:2">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="10">
         <v>1.4</v>
       </c>
     </row>
     <row r="41" ht="15.35" spans="1:2">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="10">
         <v>3.9</v>
       </c>
     </row>
@@ -2911,7 +2971,213 @@
   <hyperlinks>
     <hyperlink ref="A37" r:id="rId1" display="Ladakh "/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="15.3" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="11.3166666666667" customWidth="1"/>
+    <col min="16373" max="16380" width="11.5333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="22" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" ht="22" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6">
+        <v>5</v>
+      </c>
+      <c r="F2" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" ht="22" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="4">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4">
+        <v>30</v>
+      </c>
+      <c r="D3" s="4">
+        <v>23</v>
+      </c>
+      <c r="E3" s="8">
+        <v>17</v>
+      </c>
+      <c r="F3" s="9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" ht="66" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" ht="22" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="1">
+        <v>162</v>
+      </c>
+      <c r="C5" s="1">
+        <v>189</v>
+      </c>
+      <c r="D5" s="1">
+        <v>115</v>
+      </c>
+      <c r="E5" s="8">
+        <v>168</v>
+      </c>
+      <c r="F5" s="9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="6" ht="44" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>63</v>
+      </c>
+      <c r="C6">
+        <v>73</v>
+      </c>
+      <c r="D6">
+        <v>73</v>
+      </c>
+      <c r="E6" s="6">
+        <v>120</v>
+      </c>
+      <c r="F6" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" ht="22" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>1</v>
+      </c>
+      <c r="F7" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="44" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="22" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="8">
+        <v>10</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="Ladakh "/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
 </file>